--- a/docs/画面項目定義書/physical_node_management/physical_node_dashboard.xlsx
+++ b/docs/画面項目定義書/physical_node_management/physical_node_dashboard.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義書\physical_node_management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1364155-DE6E-40E0-AFBD-83647FAAED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,179 +25,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">日本工学院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイル名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">physical_node_dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">形式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入力必須</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目チェック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理者サイドバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ref(管理者サイドバー)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ページタイトル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理ノードダッシュボード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ノード追加ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ノード追加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_add_node_to_clusterへ遷移</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイトル「IPアドレス」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ノード名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイトル「CPU」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイトル「メモリ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイトル「ストレージ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイトル「削除ボタン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理ノードエンティティより</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理ノードエンティティを取得して繰り返し表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">削除ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">繰り返し表示、押下時確認ポップアップを表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認ポップアップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はい(ポップアップ内)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認ポップアップを非表示、物理ノードエンティティの削除を実行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ(ポップアップ内)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認ポップアップを非表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理ノードに設定ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理ノードに設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">削除不可</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理ノードの場合表示</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+  <si>
+    <t>日本工学院</t>
+  </si>
+  <si>
+    <t>画面名</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>physical_node_dashboard</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>項目名</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>入力必須</t>
+  </si>
+  <si>
+    <t>初期表示</t>
+  </si>
+  <si>
+    <t>項目チェック</t>
+  </si>
+  <si>
+    <t>処理</t>
+  </si>
+  <si>
+    <t>管理者サイドバー</t>
+  </si>
+  <si>
+    <t>Ref(管理者サイドバー)</t>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>物理ノードダッシュボード</t>
+  </si>
+  <si>
+    <t>ノード追加ボタン</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>ノード追加</t>
+  </si>
+  <si>
+    <t>mo_add_node_to_clusterへ遷移</t>
+  </si>
+  <si>
+    <t>タイトル「IPアドレス」</t>
+  </si>
+  <si>
+    <t>ノード名</t>
+  </si>
+  <si>
+    <t>タイトル「CPU」</t>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
+    <t>タイトル「メモリ」</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>タイトル「ストレージ」</t>
+  </si>
+  <si>
+    <t>メモリ</t>
+  </si>
+  <si>
+    <t>タイトル「削除ボタン」</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>物理ノードエンティティより</t>
+  </si>
+  <si>
+    <t>物理ノードエンティティを取得して繰り返し表示</t>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+  </si>
+  <si>
+    <t>非表示</t>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示、物理ノードエンティティの削除を実行</t>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+  </si>
+  <si>
+    <t>管理ノードに設定ボタン</t>
+  </si>
+  <si>
+    <t>管理ノードに設定</t>
+  </si>
+  <si>
+    <t>削除不可</t>
+  </si>
+  <si>
+    <t>管理ノードの場合表示</t>
+  </si>
+  <si>
+    <t>physical_node_dashboard</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -201,7 +193,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -216,7 +208,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -255,23 +247,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -301,331 +280,342 @@
     </fill>
   </fills>
   <borders count="16">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="double"/>
-      <bottom style="double"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="文字" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="文字" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -684,14 +674,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -704,9 +710,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Text Box 1"/>
+        <xdr:cNvPr id="2" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -728,15 +740,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="27360" tIns="18360" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="27360" tIns="18360" rIns="27360" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
@@ -744,9 +763,9 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="ja-JP" sz="1000" strike="noStrike" u="none">
+            <a:rPr lang="ja-JP" sz="1000" b="1" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:effectLst/>
               <a:uFillTx/>
@@ -755,7 +774,7 @@
             </a:rPr>
             <a:t>タイトル</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -765,7 +784,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476280</xdr:colOff>
@@ -778,9 +797,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Text Box 2"/>
+        <xdr:cNvPr id="3" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -797,15 +822,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="0" tIns="18360" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="27360" tIns="18360" rIns="0" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -813,7 +845,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" strike="noStrike" u="none">
+            <a:rPr lang="ja-JP" sz="1100" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -824,7 +856,7 @@
             </a:rPr>
             <a:t>画面項目定義</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -834,7 +866,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
@@ -847,9 +879,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>220680</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 3"/>
+        <xdr:cNvPr id="4" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -866,15 +904,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" rIns="27360" tIns="23040" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="23040" rIns="27360" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="r">
             <a:lnSpc>
@@ -882,9 +927,9 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:effectLst/>
               <a:uFillTx/>
@@ -892,7 +937,7 @@
             </a:rPr>
             <a:t>All Rights Reserved,Copyright © 2025 KATAYANAGI INSTITUTE</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -906,54 +951,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -985,7 +1030,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1009,7 +1054,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1069,107 +1114,108 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.48"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="6"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="17"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1238,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -1207,8 +1253,8 @@
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="n">
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -1224,8 +1270,8 @@
       <c r="F10" s="35"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="n">
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="30">
         <v>3</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -1243,8 +1289,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="23">
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
@@ -1259,8 +1305,8 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="n">
+    <row r="13" spans="1:7" ht="14.25">
+      <c r="A13" s="30">
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -1275,8 +1321,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="n">
+    <row r="14" spans="1:7" ht="14.25">
+      <c r="A14" s="30">
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -1291,8 +1337,8 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+    <row r="15" spans="1:7" ht="14.25">
+      <c r="A15" s="23">
         <v>7</v>
       </c>
       <c r="B15" s="37" t="s">
@@ -1307,8 +1353,8 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="n">
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="30">
         <v>8</v>
       </c>
       <c r="B16" s="37" t="s">
@@ -1323,8 +1369,8 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
+    <row r="17" spans="1:7" ht="14.25">
+      <c r="A17" s="23">
         <v>9</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -1342,8 +1388,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="n">
+    <row r="18" spans="1:7" ht="14.25">
+      <c r="A18" s="30">
         <v>10</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -1361,8 +1407,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="n">
+    <row r="19" spans="1:7" ht="14.25">
+      <c r="A19" s="30">
         <v>11</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -1380,8 +1426,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="n">
+    <row r="20" spans="1:7" ht="14.25">
+      <c r="A20" s="30">
         <v>12</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -1399,8 +1445,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="n">
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="30">
         <v>13</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -1418,8 +1464,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="n">
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="30">
         <v>14</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -1437,8 +1483,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30" t="n">
+    <row r="23" spans="1:7" ht="14.25">
+      <c r="A23" s="30">
         <v>15</v>
       </c>
       <c r="B23" s="31" t="s">
@@ -1454,8 +1500,8 @@
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="n">
+    <row r="24" spans="1:7" ht="24">
+      <c r="A24" s="30">
         <v>16</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -1473,8 +1519,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="n">
+    <row r="25" spans="1:7" ht="14.25">
+      <c r="A25" s="30">
         <v>17</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -1492,8 +1538,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="n">
+    <row r="26" spans="1:7" ht="14.25">
+      <c r="A26" s="30">
         <v>18</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -1511,8 +1557,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="n">
+    <row r="27" spans="1:7" ht="14.25">
+      <c r="A27" s="30">
         <v>19</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -1528,12 +1574,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="n">
+    <row r="28" spans="1:7" ht="14.25">
+      <c r="A28" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -1547,13 +1593,9 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/画面項目定義書/physical_node_management/physical_node_dashboard.xlsx
+++ b/docs/画面項目定義書/physical_node_management/physical_node_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義書\physical_node_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\physical_node_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1364155-DE6E-40E0-AFBD-83647FAAED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776FD9AE-6C14-4280-BC9F-EAA4946C0507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="1335" windowWidth="12150" windowHeight="20745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,139 +36,146 @@
     <t>ファイル名</t>
   </si>
   <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>項目名</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>入力必須</t>
+  </si>
+  <si>
+    <t>初期表示</t>
+  </si>
+  <si>
+    <t>項目チェック</t>
+  </si>
+  <si>
+    <t>処理</t>
+  </si>
+  <si>
+    <t>管理者サイドバー</t>
+  </si>
+  <si>
+    <t>Ref(管理者サイドバー)</t>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>物理ノードダッシュボード</t>
+  </si>
+  <si>
+    <t>ノード追加ボタン</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>ノード追加</t>
+  </si>
+  <si>
+    <t>mo_add_node_to_clusterへ遷移</t>
+  </si>
+  <si>
+    <t>タイトル「IPアドレス」</t>
+  </si>
+  <si>
+    <t>ノード名</t>
+  </si>
+  <si>
+    <t>タイトル「CPU」</t>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
+    <t>タイトル「メモリ」</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>タイトル「ストレージ」</t>
+  </si>
+  <si>
+    <t>メモリ</t>
+  </si>
+  <si>
+    <t>タイトル「削除ボタン」</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>物理ノードエンティティより</t>
+  </si>
+  <si>
+    <t>物理ノードエンティティを取得して繰り返し表示</t>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+  </si>
+  <si>
+    <t>非表示</t>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示、物理ノードエンティティの削除を実行</t>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+  </si>
+  <si>
+    <t>管理ノードに設定ボタン</t>
+  </si>
+  <si>
+    <t>管理ノードに設定</t>
+  </si>
+  <si>
+    <t>削除不可</t>
+  </si>
+  <si>
+    <t>管理ノードの場合表示</t>
+  </si>
+  <si>
     <t>physical_node_dashboard</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>項目名</t>
-  </si>
-  <si>
-    <t>形式</t>
-  </si>
-  <si>
-    <t>入力必須</t>
-  </si>
-  <si>
-    <t>初期表示</t>
-  </si>
-  <si>
-    <t>項目チェック</t>
-  </si>
-  <si>
-    <t>処理</t>
-  </si>
-  <si>
-    <t>管理者サイドバー</t>
-  </si>
-  <si>
-    <t>Ref(管理者サイドバー)</t>
-  </si>
-  <si>
-    <t>ページタイトル</t>
-  </si>
-  <si>
-    <t>表示</t>
-  </si>
-  <si>
-    <t>物理ノードダッシュボード</t>
-  </si>
-  <si>
-    <t>ノード追加ボタン</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>ノード追加</t>
-  </si>
-  <si>
-    <t>mo_add_node_to_clusterへ遷移</t>
-  </si>
-  <si>
-    <t>タイトル「IPアドレス」</t>
-  </si>
-  <si>
-    <t>ノード名</t>
-  </si>
-  <si>
-    <t>タイトル「CPU」</t>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-  </si>
-  <si>
-    <t>タイトル「メモリ」</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>タイトル「ストレージ」</t>
-  </si>
-  <si>
-    <t>メモリ</t>
-  </si>
-  <si>
-    <t>タイトル「削除ボタン」</t>
-  </si>
-  <si>
-    <t>ストレージ</t>
-  </si>
-  <si>
-    <t>物理ノードエンティティより</t>
-  </si>
-  <si>
-    <t>物理ノードエンティティを取得して繰り返し表示</t>
-  </si>
-  <si>
-    <t>削除ボタン</t>
-  </si>
-  <si>
-    <t>削除</t>
-  </si>
-  <si>
-    <t>繰り返し表示、押下時確認ポップアップを表示</t>
-  </si>
-  <si>
-    <t>確認ポップアップ</t>
-  </si>
-  <si>
-    <t>非表示</t>
-  </si>
-  <si>
-    <t>はい(ポップアップ内)</t>
-  </si>
-  <si>
-    <t>はい</t>
-  </si>
-  <si>
-    <t>確認ポップアップを非表示、物理ノードエンティティの削除を実行</t>
-  </si>
-  <si>
-    <t>いいえ(ポップアップ内)</t>
-  </si>
-  <si>
-    <t>いいえ</t>
-  </si>
-  <si>
-    <t>確認ポップアップを非表示</t>
-  </si>
-  <si>
-    <t>管理ノードに設定ボタン</t>
-  </si>
-  <si>
-    <t>管理ノードに設定</t>
-  </si>
-  <si>
-    <t>削除不可</t>
-  </si>
-  <si>
-    <t>管理ノードの場合表示</t>
-  </si>
-  <si>
-    <t>physical_node_dashboard</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>物理ノードダッシュボード画面</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -501,10 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -609,6 +612,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1129,7 +1136,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
@@ -1143,450 +1150,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="23">
-        <v>1</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="28">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="30">
-        <v>2</v>
-      </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="28">
+        <v>3</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="30">
-        <v>3</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="21">
+        <v>4</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="23">
-        <v>4</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25">
+      <c r="A13" s="28">
+        <v>5</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25">
+      <c r="A14" s="28">
+        <v>6</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25">
+      <c r="A15" s="21">
+        <v>7</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="28">
+        <v>8</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25">
+      <c r="A17" s="21">
+        <v>9</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25">
+      <c r="A18" s="28">
+        <v>10</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25">
+      <c r="A19" s="28">
+        <v>11</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25">
+      <c r="A20" s="28">
+        <v>12</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="28">
+        <v>13</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="28">
         <v>14</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="30">
-        <v>5</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="30">
-        <v>6</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="23">
-        <v>7</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="30">
-        <v>8</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="23">
-        <v>9</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="39" t="s">
+      <c r="B22" s="29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="30">
-        <v>10</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="30">
-        <v>11</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="30">
-        <v>12</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="30">
+      <c r="C22" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25">
+      <c r="A23" s="28">
+        <v>15</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="30">
-        <v>14</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="32" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="24">
+      <c r="A24" s="28">
+        <v>16</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25">
+      <c r="A25" s="28">
         <v>17</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34" t="s">
+      <c r="B25" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25">
+      <c r="A26" s="28">
+        <v>18</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="30">
-        <v>15</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" ht="24">
-      <c r="A24" s="30">
-        <v>16</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="30">
-        <v>17</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="30">
-        <v>18</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="14.25">
+      <c r="A27" s="28">
+        <v>19</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="30">
-        <v>19</v>
-      </c>
-      <c r="B27" s="31" t="s">
+      <c r="C27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="30">
+      <c r="A28" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/画面項目定義書/physical_node_management/physical_node_dashboard.xlsx
+++ b/docs/画面項目定義書/physical_node_management/physical_node_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\physical_node_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\physical_node_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776FD9AE-6C14-4280-BC9F-EAA4946C0507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EEE5FF-B6FF-41EC-ABBC-B706D2F0E7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1335" windowWidth="12150" windowHeight="20745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,6 @@
     <t>管理ノードの場合表示</t>
   </si>
   <si>
-    <t>physical_node_dashboard</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>物理ノードダッシュボード画面</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
@@ -176,6 +172,10 @@
     <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>physical_node_dashboard.html</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1135,21 +1135,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
     <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25">
+    <row r="1" spans="1:7" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:7" ht="14">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1169,7 +1169,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1178,7 +1178,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:7" ht="14">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1187,7 +1187,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14">
       <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
@@ -1200,20 +1200,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
+    <row r="7" spans="1:7" ht="14">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1222,7 +1222,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
+    <row r="8" spans="1:7" ht="14">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25">
+    <row r="9" spans="1:7" ht="14">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
+    <row r="10" spans="1:7" ht="14">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25">
+    <row r="11" spans="1:7" ht="14">
       <c r="A11" s="28">
         <v>3</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="21">
         <v>4</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25">
+    <row r="13" spans="1:7" ht="14">
       <c r="A13" s="28">
         <v>5</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25">
+    <row r="16" spans="1:7" ht="14">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="28">
         <v>10</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="28">
         <v>11</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25">
+    <row r="20" spans="1:7" ht="14">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25">
+    <row r="21" spans="1:7" ht="14">
       <c r="A21" s="28">
         <v>13</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="28">
         <v>15</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25">
+    <row r="25" spans="1:7" ht="14">
       <c r="A25" s="28">
         <v>17</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="28">
         <v>18</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="28">
         <v>19</v>
       </c>
@@ -1581,12 +1581,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
